--- a/tests/resources_generator/tests/resources/INFORMATION.xlsx
+++ b/tests/resources_generator/tests/resources/INFORMATION.xlsx
@@ -425,33 +425,26 @@
       <c r="A1" t="n">
         <v>123</v>
       </c>
-      <c r="B1">
-        <f>ISNUMBER(A1)</f>
-        <v/>
-      </c>
-      <c r="C1">
-        <f>ISTEXT(A1)</f>
-        <v/>
-      </c>
-      <c r="D1">
-        <f>ISBLANK(A1)</f>
-        <v/>
-      </c>
-      <c r="E1">
-        <f>ISERROR(A1)</f>
-        <v/>
-      </c>
-      <c r="F1">
-        <f>ISNA(A1)</f>
-        <v/>
-      </c>
-      <c r="G1">
-        <f>ISERR(A1)</f>
-        <v/>
-      </c>
-      <c r="J1">
-        <f>NA()</f>
-        <v/>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2">
@@ -460,44 +453,36 @@
           <t>Hello</t>
         </is>
       </c>
-      <c r="B2">
-        <f>ISNUMBER(A2)</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>ISTEXT(A2)</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>ISBLANK(A2)</f>
-        <v/>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>ISNUMBER(A3)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>ISTEXT(A3)</f>
-        <v/>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4">
-        <f>ISNUMBER(A4)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>ISTEXT(A4)</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>ISBLANK(A4)</f>
-        <v/>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -505,29 +490,23 @@
         <f>1/0</f>
         <v/>
       </c>
-      <c r="B5">
-        <f>ISNUMBER(123)</f>
-        <v/>
-      </c>
-      <c r="C5">
-        <f>ISTEXT("test")</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>ISBLANK("")</f>
-        <v/>
-      </c>
-      <c r="E5">
-        <f>ISERROR(A5)</f>
-        <v/>
-      </c>
-      <c r="F5">
-        <f>ISNA(A5)</f>
-        <v/>
-      </c>
-      <c r="G5">
-        <f>ISERR(A5)</f>
-        <v/>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -535,73 +514,61 @@
         <f>NA()</f>
         <v/>
       </c>
-      <c r="E6">
-        <f>ISERROR(A6)</f>
-        <v/>
-      </c>
-      <c r="F6">
-        <f>ISNA(A6)</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>ISERR(A6)</f>
-        <v/>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <f>ISERROR(1/0)</f>
-        <v/>
-      </c>
-      <c r="H7">
-        <f>ISEVEN(A7)</f>
-        <v/>
-      </c>
-      <c r="I7">
-        <f>ISODD(A7)</f>
-        <v/>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="H8">
-        <f>ISEVEN(A8)</f>
-        <v/>
-      </c>
-      <c r="I8">
-        <f>ISODD(A8)</f>
-        <v/>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="H9">
-        <f>ISEVEN(A9)</f>
-        <v/>
-      </c>
-      <c r="I9">
-        <f>ISODD(A9)</f>
-        <v/>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>-3</v>
       </c>
-      <c r="H10">
-        <f>ISEVEN(A10)</f>
-        <v/>
-      </c>
-      <c r="I10">
-        <f>ISODD(A10)</f>
-        <v/>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
